--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
@@ -1042,19 +1042,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザ別従事プロジェクト抽出</t>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>プロジェクト一括登録</t>
     <rPh sb="6" eb="8">
       <t>イッカツ</t>
@@ -1077,10 +1064,6 @@
   </si>
   <si>
     <t>「プロジェクト登録」リンククリック</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「ユーザ別従事プロジェクト抽出」リンククリック</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1239,10 +1222,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>・ユーザ別従事プロジェクト抽出</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>・プロジェクト一括登録</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1315,19 +1294,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>2.6.6. ユーザ別従事プロジェクト抽出イベント</t>
-    <rPh sb="10" eb="11">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>2.6.7. プロジェクト一括登録イベント</t>
     <rPh sb="13" eb="15">
       <t>イッカツ</t>
@@ -1365,6 +1331,52 @@
     <t>2.6.5. プロジェクト登録イベント</t>
     <rPh sb="13" eb="15">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ユーザ別従事プロジェクト抽出指示</t>
+    <rPh sb="15" eb="17">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト抽出指示</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>「ユーザ別従事プロジェクト抽出指示」リンククリック</t>
+    <rPh sb="15" eb="17">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.6. ユーザ別従事プロジェクト抽出指示イベント</t>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シジ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1377,7 +1389,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1533,7 +1545,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1561,6 +1573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,7 +2041,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2373,6 +2391,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2652,12 +2673,105 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2666,63 +2780,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2738,24 +2795,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3278,6 +3317,462 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10601325" y="9172575"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>グレーアウト箇所は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="18640425"/>
+          <a:ext cx="6819900" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="14706600"/>
+          <a:ext cx="6819900" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10610850" y="15001875"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10620375" y="18716625"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3666,42 +4161,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3712,7 +4207,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3721,19 +4216,19 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="147">
+      <c r="I25" s="148">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43599</v>
       </c>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3742,7 +4237,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3751,7 +4246,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3760,7 +4255,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3768,7 +4263,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3777,7 +4272,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3786,7 +4281,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3795,7 +4290,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3807,7 +4302,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3822,515 +4317,515 @@
       <c r="R34" s="87"/>
       <c r="S34" s="87"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="87"/>
       <c r="R35" s="87"/>
       <c r="S35" s="87"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="88"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="88"/>
       <c r="R36" s="87"/>
       <c r="S36" s="85"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="89"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="89"/>
       <c r="R37" s="90"/>
       <c r="S37" s="89"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="90"/>
       <c r="P38" s="90"/>
       <c r="Q38" s="90"/>
       <c r="R38" s="90"/>
       <c r="S38" s="90"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="90"/>
       <c r="P39" s="90"/>
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
       <c r="S39" s="90"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4355,170 +4850,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="196" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="166" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="178" t="s">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
-      <c r="X1" s="179"/>
-      <c r="Y1" s="179"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="155">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="196" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="166" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="157" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="154" t="str">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="155" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="196" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="166" t="s">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4560,7 +5055,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4604,7 +5099,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4646,1034 +5141,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="166"/>
+      <c r="D7" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="163" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="163" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="163" t="s">
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="164"/>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164"/>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="163" t="s">
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="165"/>
-    </row>
-    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="166"/>
+    </row>
+    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="191"/>
-      <c r="D8" s="192">
+      <c r="C8" s="192"/>
+      <c r="D8" s="193">
         <v>43599</v>
       </c>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="190" t="s">
+      <c r="E8" s="194"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="175" t="s">
+      <c r="H8" s="196"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="151" t="s">
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="175" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="177"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="178"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="171"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="174"/>
-    </row>
-    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="161"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="174"/>
+      <c r="AI9" s="175"/>
+    </row>
+    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="171"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="174"/>
-    </row>
-    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="161"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="174"/>
+      <c r="AH10" s="174"/>
+      <c r="AI10" s="175"/>
+    </row>
+    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="170"/>
-      <c r="AA11" s="170"/>
-      <c r="AB11" s="170"/>
-      <c r="AC11" s="170"/>
-      <c r="AD11" s="170"/>
-      <c r="AE11" s="171"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="174"/>
-    </row>
-    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="161"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="171"/>
+      <c r="AA11" s="171"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="171"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="175"/>
+    </row>
+    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="170"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="170"/>
-      <c r="AC12" s="170"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="171"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="174"/>
-    </row>
-    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="161"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="171"/>
+      <c r="AA12" s="171"/>
+      <c r="AB12" s="171"/>
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="174"/>
+      <c r="AH12" s="174"/>
+      <c r="AI12" s="175"/>
+    </row>
+    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="170"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="170"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="170"/>
-      <c r="AC13" s="170"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="171"/>
-      <c r="AF13" s="172"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="174"/>
-    </row>
-    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="161"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="171"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="174"/>
+      <c r="AI13" s="175"/>
+    </row>
+    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="170"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="170"/>
-      <c r="AC14" s="170"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="171"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="173"/>
-      <c r="AH14" s="173"/>
-      <c r="AI14" s="174"/>
-    </row>
-    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="161"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="171"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+      <c r="V14" s="171"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="174"/>
+      <c r="AH14" s="174"/>
+      <c r="AI14" s="175"/>
+    </row>
+    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="170"/>
-      <c r="X15" s="170"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="170"/>
-      <c r="AA15" s="170"/>
-      <c r="AB15" s="170"/>
-      <c r="AC15" s="170"/>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="171"/>
-      <c r="AF15" s="172"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="174"/>
-    </row>
-    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="161"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="171"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="171"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="174"/>
+      <c r="AH15" s="174"/>
+      <c r="AI15" s="175"/>
+    </row>
+    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="170"/>
-      <c r="X16" s="170"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="170"/>
-      <c r="AA16" s="170"/>
-      <c r="AB16" s="170"/>
-      <c r="AC16" s="170"/>
-      <c r="AD16" s="170"/>
-      <c r="AE16" s="171"/>
-      <c r="AF16" s="172"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="174"/>
-    </row>
-    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="161"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="171"/>
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="171"/>
+      <c r="Z16" s="171"/>
+      <c r="AA16" s="171"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="171"/>
+      <c r="AD16" s="171"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="174"/>
+      <c r="AI16" s="175"/>
+    </row>
+    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="170"/>
-      <c r="W17" s="170"/>
-      <c r="X17" s="170"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="170"/>
-      <c r="AA17" s="170"/>
-      <c r="AB17" s="170"/>
-      <c r="AC17" s="170"/>
-      <c r="AD17" s="170"/>
-      <c r="AE17" s="171"/>
-      <c r="AF17" s="172"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="174"/>
-    </row>
-    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="161"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="171"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="174"/>
+      <c r="AH17" s="174"/>
+      <c r="AI17" s="175"/>
+    </row>
+    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="170"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="170"/>
-      <c r="AA18" s="170"/>
-      <c r="AB18" s="170"/>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="171"/>
-      <c r="AF18" s="172"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
-      <c r="AI18" s="174"/>
-    </row>
-    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="161"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="175"/>
+    </row>
+    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="170"/>
-      <c r="W19" s="170"/>
-      <c r="X19" s="170"/>
-      <c r="Y19" s="170"/>
-      <c r="Z19" s="170"/>
-      <c r="AA19" s="170"/>
-      <c r="AB19" s="170"/>
-      <c r="AC19" s="170"/>
-      <c r="AD19" s="170"/>
-      <c r="AE19" s="171"/>
-      <c r="AF19" s="172"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
-      <c r="AI19" s="174"/>
-    </row>
-    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="161"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="171"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="171"/>
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="174"/>
+      <c r="AH19" s="174"/>
+      <c r="AI19" s="175"/>
+    </row>
+    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
-      <c r="U20" s="170"/>
-      <c r="V20" s="170"/>
-      <c r="W20" s="170"/>
-      <c r="X20" s="170"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="170"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="170"/>
-      <c r="AD20" s="170"/>
-      <c r="AE20" s="171"/>
-      <c r="AF20" s="172"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
-      <c r="AI20" s="174"/>
-    </row>
-    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="161"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="171"/>
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="174"/>
+      <c r="AH20" s="174"/>
+      <c r="AI20" s="175"/>
+    </row>
+    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="170"/>
-      <c r="S21" s="170"/>
-      <c r="T21" s="170"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="170"/>
-      <c r="X21" s="170"/>
-      <c r="Y21" s="170"/>
-      <c r="Z21" s="170"/>
-      <c r="AA21" s="170"/>
-      <c r="AB21" s="170"/>
-      <c r="AC21" s="170"/>
-      <c r="AD21" s="170"/>
-      <c r="AE21" s="171"/>
-      <c r="AF21" s="172"/>
-      <c r="AG21" s="173"/>
-      <c r="AH21" s="173"/>
-      <c r="AI21" s="174"/>
-    </row>
-    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="161"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="171"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="171"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="174"/>
+      <c r="AH21" s="174"/>
+      <c r="AI21" s="175"/>
+    </row>
+    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="170"/>
-      <c r="T22" s="170"/>
-      <c r="U22" s="170"/>
-      <c r="V22" s="170"/>
-      <c r="W22" s="170"/>
-      <c r="X22" s="170"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="170"/>
-      <c r="AB22" s="170"/>
-      <c r="AC22" s="170"/>
-      <c r="AD22" s="170"/>
-      <c r="AE22" s="171"/>
-      <c r="AF22" s="172"/>
-      <c r="AG22" s="173"/>
-      <c r="AH22" s="173"/>
-      <c r="AI22" s="174"/>
-    </row>
-    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="161"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="171"/>
+      <c r="U22" s="171"/>
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="171"/>
+      <c r="Z22" s="171"/>
+      <c r="AA22" s="171"/>
+      <c r="AB22" s="171"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="171"/>
+      <c r="AE22" s="172"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="174"/>
+      <c r="AH22" s="174"/>
+      <c r="AI22" s="175"/>
+    </row>
+    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="174"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="170"/>
-      <c r="Y23" s="170"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="170"/>
-      <c r="AD23" s="170"/>
-      <c r="AE23" s="171"/>
-      <c r="AF23" s="172"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
-      <c r="AI23" s="174"/>
-    </row>
-    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="161"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="171"/>
+      <c r="V23" s="171"/>
+      <c r="W23" s="171"/>
+      <c r="X23" s="171"/>
+      <c r="Y23" s="171"/>
+      <c r="Z23" s="171"/>
+      <c r="AA23" s="171"/>
+      <c r="AB23" s="171"/>
+      <c r="AC23" s="171"/>
+      <c r="AD23" s="171"/>
+      <c r="AE23" s="172"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="174"/>
+      <c r="AH23" s="174"/>
+      <c r="AI23" s="175"/>
+    </row>
+    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="170"/>
-      <c r="AC24" s="170"/>
-      <c r="AD24" s="170"/>
-      <c r="AE24" s="171"/>
-      <c r="AF24" s="172"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
-      <c r="AI24" s="174"/>
-    </row>
-    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="161"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="171"/>
+      <c r="Y24" s="171"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="171"/>
+      <c r="AD24" s="171"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="174"/>
+      <c r="AH24" s="174"/>
+      <c r="AI24" s="175"/>
+    </row>
+    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="169"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="170"/>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="171"/>
-      <c r="AF25" s="172"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
-      <c r="AI25" s="174"/>
-    </row>
-    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="161"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="171"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="174"/>
+      <c r="AH25" s="174"/>
+      <c r="AI25" s="175"/>
+    </row>
+    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="170"/>
-      <c r="AC26" s="170"/>
-      <c r="AD26" s="170"/>
-      <c r="AE26" s="171"/>
-      <c r="AF26" s="172"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="174"/>
-    </row>
-    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="161"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="171"/>
+      <c r="T26" s="171"/>
+      <c r="U26" s="171"/>
+      <c r="V26" s="171"/>
+      <c r="W26" s="171"/>
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="174"/>
+      <c r="AH26" s="174"/>
+      <c r="AI26" s="175"/>
+    </row>
+    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="174"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="170"/>
-      <c r="AC27" s="170"/>
-      <c r="AD27" s="170"/>
-      <c r="AE27" s="171"/>
-      <c r="AF27" s="172"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
-      <c r="AI27" s="174"/>
-    </row>
-    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="161"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="171"/>
+      <c r="S27" s="171"/>
+      <c r="T27" s="171"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="171"/>
+      <c r="W27" s="171"/>
+      <c r="X27" s="171"/>
+      <c r="Y27" s="171"/>
+      <c r="Z27" s="171"/>
+      <c r="AA27" s="171"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="171"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="172"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="174"/>
+      <c r="AH27" s="174"/>
+      <c r="AI27" s="175"/>
+    </row>
+    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="174"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="170"/>
-      <c r="AC28" s="170"/>
-      <c r="AD28" s="170"/>
-      <c r="AE28" s="171"/>
-      <c r="AF28" s="172"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="174"/>
-    </row>
-    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="161"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="171"/>
+      <c r="X28" s="171"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="171"/>
+      <c r="AA28" s="171"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="171"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="174"/>
+      <c r="AH28" s="174"/>
+      <c r="AI28" s="175"/>
+    </row>
+    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="169"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="170"/>
-      <c r="AC29" s="170"/>
-      <c r="AD29" s="170"/>
-      <c r="AE29" s="171"/>
-      <c r="AF29" s="172"/>
-      <c r="AG29" s="173"/>
-      <c r="AH29" s="173"/>
-      <c r="AI29" s="174"/>
-    </row>
-    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="161"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
+      <c r="U29" s="171"/>
+      <c r="V29" s="171"/>
+      <c r="W29" s="171"/>
+      <c r="X29" s="171"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="171"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="171"/>
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="174"/>
+      <c r="AH29" s="174"/>
+      <c r="AI29" s="175"/>
+    </row>
+    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="169"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170"/>
-      <c r="AB30" s="170"/>
-      <c r="AC30" s="170"/>
-      <c r="AD30" s="170"/>
-      <c r="AE30" s="171"/>
-      <c r="AF30" s="172"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
-      <c r="AI30" s="174"/>
-    </row>
-    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="161"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="171"/>
+      <c r="AE30" s="172"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="174"/>
+      <c r="AH30" s="174"/>
+      <c r="AI30" s="175"/>
+    </row>
+    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="170"/>
-      <c r="AC31" s="170"/>
-      <c r="AD31" s="170"/>
-      <c r="AE31" s="171"/>
-      <c r="AF31" s="172"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
-      <c r="AI31" s="174"/>
-    </row>
-    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="161"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="171"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="174"/>
+      <c r="AH31" s="174"/>
+      <c r="AI31" s="175"/>
+    </row>
+    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="169"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="170"/>
-      <c r="AC32" s="170"/>
-      <c r="AD32" s="170"/>
-      <c r="AE32" s="171"/>
-      <c r="AF32" s="172"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
-      <c r="AI32" s="174"/>
-    </row>
-    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="161"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="171"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="171"/>
+      <c r="W32" s="171"/>
+      <c r="X32" s="171"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="171"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="174"/>
+      <c r="AH32" s="174"/>
+      <c r="AI32" s="175"/>
+    </row>
+    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="170"/>
-      <c r="AC33" s="170"/>
-      <c r="AD33" s="170"/>
-      <c r="AE33" s="171"/>
-      <c r="AF33" s="172"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
-      <c r="AI33" s="174"/>
-    </row>
-    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="161"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="171"/>
+      <c r="V33" s="171"/>
+      <c r="W33" s="171"/>
+      <c r="X33" s="171"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="171"/>
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="172"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="174"/>
+      <c r="AH33" s="174"/>
+      <c r="AI33" s="175"/>
+    </row>
+    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -5895,7 +6390,7 @@
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5911,7 +6406,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="63" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="48" customWidth="1"/>
@@ -6046,161 +6541,161 @@
     <col min="16163" max="16384" width="4.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A1" s="196" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="213" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="210">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="211">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="212"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A2" s="196" t="s">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="213" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="210" t="str">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="212"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A3" s="196" t="s">
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="213" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="210" t="str">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="212"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6237,7 +6732,7 @@
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
     </row>
-    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6276,7 +6771,7 @@
       <c r="AH5" s="29"/>
       <c r="AI5" s="29"/>
     </row>
-    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -6313,7 +6808,7 @@
       <c r="AH6" s="58"/>
       <c r="AI6" s="58"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
         <v>42</v>
@@ -6352,7 +6847,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="62"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
@@ -6391,7 +6886,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="62"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="53"/>
       <c r="C9" s="37"/>
@@ -6428,7 +6923,7 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
         <v>118</v>
@@ -6467,7 +6962,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="62"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="53"/>
       <c r="C11" s="41" t="s">
@@ -6506,7 +7001,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="62"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="53"/>
       <c r="C12" s="31" t="s">
@@ -6540,7 +7035,7 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="62"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="62"/>
       <c r="C13" s="28" t="s">
@@ -6579,7 +7074,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="62"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="41"/>
       <c r="C14" s="28" t="s">
@@ -6618,7 +7113,7 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="62"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
       <c r="B15" s="41"/>
       <c r="C15" s="28" t="s">
@@ -6653,7 +7148,7 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="62"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="58"/>
       <c r="C16" s="31" t="s">
@@ -6692,7 +7187,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="62"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="58"/>
       <c r="C17" s="33"/>
@@ -6728,7 +7223,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="62"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -6765,7 +7260,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="68"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
@@ -6799,7 +7294,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="68"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J20" s="71"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
@@ -6827,7 +7322,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="68"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -6854,7 +7349,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
@@ -6879,7 +7374,7 @@
       <c r="AH22" s="49"/>
       <c r="AI22" s="72"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
       <c r="U23" s="73"/>
@@ -6898,7 +7393,7 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="72"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="71"/>
       <c r="Q24" s="52"/>
       <c r="S24" s="72"/>
@@ -6919,7 +7414,7 @@
       <c r="AH24" s="51"/>
       <c r="AI24" s="72"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
@@ -6938,7 +7433,7 @@
       <c r="AH25" s="51"/>
       <c r="AI25" s="72"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71"/>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
@@ -6952,7 +7447,7 @@
       <c r="AH26" s="51"/>
       <c r="AI26" s="72"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="71"/>
       <c r="AE27" s="72"/>
       <c r="AF27" s="76"/>
@@ -6960,28 +7455,28 @@
       <c r="AH27" s="51"/>
       <c r="AI27" s="72"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="72"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="51"/>
       <c r="AI28" s="72"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="77"/>
       <c r="AG29" s="77"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="77"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="77"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="77"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
       <c r="V33" s="71"/>
@@ -6994,7 +7489,7 @@
       <c r="AC33" s="71"/>
       <c r="AD33" s="71"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="71"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
@@ -7009,10 +7504,10 @@
       <c r="AD34" s="71"/>
       <c r="AG34" s="77"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
@@ -7045,7 +7540,7 @@
       <c r="AD36" s="63"/>
       <c r="AH36" s="52"/>
     </row>
-    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
@@ -7101,7 +7596,7 @@
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7117,261 +7612,261 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1">
-      <c r="A1" s="196" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="213" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="210">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="211">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="212"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1">
-      <c r="A2" s="196" t="s">
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="213"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="213" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="210" t="str">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="212"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1">
-      <c r="A3" s="196" t="s">
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="213" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="210" t="str">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="212"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="91" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="91" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="92"/>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="234" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="172" t="s">
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="236"/>
-      <c r="I8" s="236"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="234"/>
-      <c r="P8" s="234"/>
-      <c r="Q8" s="234"/>
-      <c r="R8" s="234"/>
-      <c r="S8" s="234"/>
-      <c r="T8" s="234"/>
-      <c r="U8" s="234"/>
-      <c r="V8" s="234"/>
-      <c r="W8" s="234"/>
-      <c r="X8" s="234"/>
-      <c r="Y8" s="234"/>
-      <c r="Z8" s="234"/>
-      <c r="AA8" s="234"/>
-      <c r="AB8" s="234"/>
-      <c r="AC8" s="234"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="234"/>
-      <c r="AF8" s="234"/>
-      <c r="AG8" s="235"/>
-    </row>
-    <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="235"/>
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="236"/>
+    </row>
+    <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="92"/>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="172" t="s">
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="234"/>
-      <c r="Q9" s="234"/>
-      <c r="R9" s="234"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="234"/>
-      <c r="U9" s="234"/>
-      <c r="V9" s="234"/>
-      <c r="W9" s="234"/>
-      <c r="X9" s="234"/>
-      <c r="Y9" s="234"/>
-      <c r="Z9" s="234"/>
-      <c r="AA9" s="234"/>
-      <c r="AB9" s="234"/>
-      <c r="AC9" s="234"/>
-      <c r="AD9" s="234"/>
-      <c r="AE9" s="234"/>
-      <c r="AF9" s="234"/>
-      <c r="AG9" s="235"/>
-    </row>
-    <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="235"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="235"/>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="235"/>
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="235"/>
+      <c r="AF9" s="235"/>
+      <c r="AG9" s="236"/>
+    </row>
+    <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="92"/>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="227"/>
       <c r="G10" s="144" t="s">
         <v>116</v>
       </c>
@@ -7402,12 +7897,12 @@
       <c r="AF10" s="93"/>
       <c r="AG10" s="94"/>
     </row>
-    <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="92"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="229"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="230"/>
       <c r="G11" s="95"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -7436,12 +7931,12 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="96"/>
     </row>
-    <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="229"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
       <c r="G12" s="145"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -7470,12 +7965,12 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="96"/>
     </row>
-    <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="232"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="233"/>
       <c r="G13" s="97"/>
       <c r="H13" s="98"/>
       <c r="I13" s="98"/>
@@ -7504,14 +7999,14 @@
       <c r="AF13" s="98"/>
       <c r="AG13" s="99"/>
     </row>
-    <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92"/>
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="100" t="s">
         <v>117</v>
       </c>
@@ -7542,44 +8037,44 @@
       <c r="AF14" s="101"/>
       <c r="AG14" s="102"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
@@ -7609,7 +8104,7 @@
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -7627,215 +8122,215 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="17"/>
     <col min="8" max="9" width="4.83203125" style="17" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="32" customFormat="1">
-      <c r="A1" s="280" t="s">
+    <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="287" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="213" t="str">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="214" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="215"/>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="216"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="148" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="277">
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="284">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="278"/>
-      <c r="AI1" s="279"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="286"/>
       <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:36" s="32" customFormat="1">
-      <c r="A2" s="280" t="s">
+    <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="213" t="str">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="148" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="277" t="str">
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="278"/>
-      <c r="AI2" s="279"/>
+      <c r="AH2" s="285"/>
+      <c r="AI2" s="286"/>
       <c r="AJ2" s="30"/>
     </row>
-    <row r="3" spans="1:36" s="32" customFormat="1">
-      <c r="A3" s="280" t="s">
+    <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="213" t="str">
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="148" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="277" t="str">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="279"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="286"/>
       <c r="AJ3" s="30"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
       <c r="F40" s="118"/>
@@ -7868,7 +8363,7 @@
       <c r="AG40" s="118"/>
       <c r="AH40" s="118"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C41" s="142" t="s">
         <v>57</v>
       </c>
@@ -7903,7 +8398,7 @@
       <c r="AG41" s="118"/>
       <c r="AH41" s="118"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C42" s="35"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
@@ -7936,89 +8431,89 @@
       <c r="AG42" s="118"/>
       <c r="AH42" s="118"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D43" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="283" t="s">
+      <c r="E43" s="290" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="283"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="283"/>
-      <c r="M43" s="283"/>
-      <c r="N43" s="283" t="s">
+      <c r="F43" s="290"/>
+      <c r="G43" s="290"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="290" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="283"/>
-      <c r="P43" s="283"/>
-      <c r="Q43" s="283" t="s">
+      <c r="O43" s="290"/>
+      <c r="P43" s="290"/>
+      <c r="Q43" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="283"/>
-      <c r="S43" s="283"/>
-      <c r="T43" s="283"/>
-      <c r="U43" s="283"/>
-      <c r="V43" s="283" t="s">
+      <c r="R43" s="290"/>
+      <c r="S43" s="290"/>
+      <c r="T43" s="290"/>
+      <c r="U43" s="290"/>
+      <c r="V43" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="283"/>
-      <c r="X43" s="283"/>
-      <c r="Y43" s="283"/>
-      <c r="Z43" s="283"/>
-      <c r="AA43" s="283"/>
-      <c r="AB43" s="283"/>
-      <c r="AC43" s="283"/>
+      <c r="W43" s="290"/>
+      <c r="X43" s="290"/>
+      <c r="Y43" s="290"/>
+      <c r="Z43" s="290"/>
+      <c r="AA43" s="290"/>
+      <c r="AB43" s="290"/>
+      <c r="AC43" s="290"/>
       <c r="AD43" s="118"/>
       <c r="AE43" s="118"/>
       <c r="AF43" s="118"/>
       <c r="AG43" s="118"/>
       <c r="AH43" s="118"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="134">
         <v>1</v>
       </c>
-      <c r="E44" s="301" t="s">
+      <c r="E44" s="308" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="302"/>
-      <c r="G44" s="302"/>
-      <c r="H44" s="302"/>
-      <c r="I44" s="302"/>
-      <c r="J44" s="302"/>
-      <c r="K44" s="302"/>
-      <c r="L44" s="302"/>
-      <c r="M44" s="302"/>
-      <c r="N44" s="302" t="s">
+      <c r="F44" s="309"/>
+      <c r="G44" s="309"/>
+      <c r="H44" s="309"/>
+      <c r="I44" s="309"/>
+      <c r="J44" s="309"/>
+      <c r="K44" s="309"/>
+      <c r="L44" s="309"/>
+      <c r="M44" s="309"/>
+      <c r="N44" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="O44" s="302"/>
-      <c r="P44" s="302"/>
-      <c r="Q44" s="295" t="s">
+      <c r="O44" s="309"/>
+      <c r="P44" s="309"/>
+      <c r="Q44" s="302" t="s">
         <v>96</v>
       </c>
-      <c r="R44" s="295"/>
-      <c r="S44" s="295"/>
-      <c r="T44" s="295"/>
-      <c r="U44" s="295"/>
-      <c r="V44" s="296" t="s">
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="W44" s="295"/>
-      <c r="X44" s="295"/>
-      <c r="Y44" s="295"/>
-      <c r="Z44" s="295"/>
-      <c r="AA44" s="295"/>
-      <c r="AB44" s="295"/>
-      <c r="AC44" s="295"/>
+      <c r="W44" s="302"/>
+      <c r="X44" s="302"/>
+      <c r="Y44" s="302"/>
+      <c r="Z44" s="302"/>
+      <c r="AA44" s="302"/>
+      <c r="AB44" s="302"/>
+      <c r="AC44" s="302"/>
       <c r="AM44" s="35"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="137"/>
       <c r="E45" s="129"/>
       <c r="F45" s="136"/>
@@ -8047,10 +8542,10 @@
       <c r="AC45" s="118"/>
       <c r="AM45" s="35"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O46" s="136"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C47" s="103" t="s">
         <v>101</v>
       </c>
@@ -8072,7 +8567,7 @@
       <c r="AZ47" s="92"/>
       <c r="BA47" s="92"/>
     </row>
-    <row r="48" spans="3:53" s="91" customFormat="1">
+    <row r="48" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AJ48" s="116"/>
       <c r="AK48" s="116"/>
       <c r="AL48" s="116"/>
@@ -8091,43 +8586,43 @@
       <c r="AY48" s="116"/>
       <c r="AZ48" s="116"/>
     </row>
-    <row r="49" spans="3:53" s="91" customFormat="1">
-      <c r="D49" s="286" t="s">
+    <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="274" t="s">
+      <c r="E49" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="275"/>
-      <c r="G49" s="275"/>
-      <c r="H49" s="275"/>
-      <c r="I49" s="275"/>
-      <c r="J49" s="275"/>
-      <c r="K49" s="275"/>
-      <c r="L49" s="275"/>
-      <c r="M49" s="275"/>
-      <c r="N49" s="275"/>
-      <c r="O49" s="275"/>
-      <c r="P49" s="275"/>
-      <c r="Q49" s="275"/>
-      <c r="R49" s="275"/>
-      <c r="S49" s="275"/>
-      <c r="T49" s="275"/>
-      <c r="U49" s="275"/>
-      <c r="V49" s="275"/>
-      <c r="W49" s="275"/>
-      <c r="X49" s="275"/>
-      <c r="Y49" s="275"/>
-      <c r="Z49" s="275"/>
-      <c r="AA49" s="275"/>
-      <c r="AB49" s="275"/>
-      <c r="AC49" s="276"/>
-      <c r="AD49" s="224" t="s">
+      <c r="F49" s="272"/>
+      <c r="G49" s="272"/>
+      <c r="H49" s="272"/>
+      <c r="I49" s="272"/>
+      <c r="J49" s="272"/>
+      <c r="K49" s="272"/>
+      <c r="L49" s="272"/>
+      <c r="M49" s="272"/>
+      <c r="N49" s="272"/>
+      <c r="O49" s="272"/>
+      <c r="P49" s="272"/>
+      <c r="Q49" s="272"/>
+      <c r="R49" s="272"/>
+      <c r="S49" s="272"/>
+      <c r="T49" s="272"/>
+      <c r="U49" s="272"/>
+      <c r="V49" s="272"/>
+      <c r="W49" s="272"/>
+      <c r="X49" s="272"/>
+      <c r="Y49" s="272"/>
+      <c r="Z49" s="272"/>
+      <c r="AA49" s="272"/>
+      <c r="AB49" s="272"/>
+      <c r="AC49" s="273"/>
+      <c r="AD49" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="AE49" s="225"/>
-      <c r="AF49" s="225"/>
-      <c r="AG49" s="226"/>
+      <c r="AE49" s="226"/>
+      <c r="AF49" s="226"/>
+      <c r="AG49" s="227"/>
       <c r="AH49" s="116"/>
       <c r="AI49" s="116"/>
       <c r="AJ49" s="116"/>
@@ -8139,49 +8634,49 @@
       <c r="AP49" s="92"/>
       <c r="AQ49" s="92"/>
     </row>
-    <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1">
-      <c r="D50" s="287"/>
-      <c r="E50" s="224" t="s">
+    <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="294"/>
+      <c r="E50" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="225"/>
-      <c r="G50" s="225"/>
-      <c r="H50" s="226"/>
-      <c r="I50" s="300" t="s">
+      <c r="F50" s="226"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="227"/>
+      <c r="I50" s="307" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="290"/>
-      <c r="K50" s="290"/>
-      <c r="L50" s="291"/>
-      <c r="M50" s="289" t="s">
+      <c r="J50" s="297"/>
+      <c r="K50" s="297"/>
+      <c r="L50" s="298"/>
+      <c r="M50" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="N50" s="290"/>
-      <c r="O50" s="290"/>
-      <c r="P50" s="290"/>
-      <c r="Q50" s="290"/>
-      <c r="R50" s="290"/>
-      <c r="S50" s="290"/>
-      <c r="T50" s="291"/>
-      <c r="U50" s="224" t="s">
+      <c r="N50" s="297"/>
+      <c r="O50" s="297"/>
+      <c r="P50" s="297"/>
+      <c r="Q50" s="297"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="297"/>
+      <c r="T50" s="298"/>
+      <c r="U50" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="225"/>
-      <c r="W50" s="225"/>
-      <c r="X50" s="225"/>
-      <c r="Y50" s="226"/>
-      <c r="Z50" s="224" t="s">
+      <c r="V50" s="226"/>
+      <c r="W50" s="226"/>
+      <c r="X50" s="226"/>
+      <c r="Y50" s="227"/>
+      <c r="Z50" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="AA50" s="225"/>
-      <c r="AB50" s="226"/>
-      <c r="AC50" s="286" t="s">
+      <c r="AA50" s="226"/>
+      <c r="AB50" s="227"/>
+      <c r="AC50" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="AD50" s="227"/>
-      <c r="AE50" s="228"/>
-      <c r="AF50" s="228"/>
-      <c r="AG50" s="229"/>
+      <c r="AD50" s="228"/>
+      <c r="AE50" s="229"/>
+      <c r="AF50" s="229"/>
+      <c r="AG50" s="230"/>
       <c r="AH50" s="116"/>
       <c r="AI50" s="116"/>
       <c r="AJ50" s="116"/>
@@ -8196,37 +8691,37 @@
       <c r="AS50" s="116"/>
       <c r="AT50" s="116"/>
     </row>
-    <row r="51" spans="3:53" s="91" customFormat="1">
-      <c r="D51" s="288"/>
-      <c r="E51" s="230"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="231"/>
-      <c r="H51" s="232"/>
-      <c r="I51" s="292"/>
-      <c r="J51" s="293"/>
-      <c r="K51" s="293"/>
-      <c r="L51" s="294"/>
-      <c r="M51" s="292"/>
-      <c r="N51" s="293"/>
-      <c r="O51" s="293"/>
-      <c r="P51" s="293"/>
-      <c r="Q51" s="293"/>
-      <c r="R51" s="293"/>
-      <c r="S51" s="293"/>
-      <c r="T51" s="294"/>
-      <c r="U51" s="230"/>
-      <c r="V51" s="231"/>
-      <c r="W51" s="231"/>
-      <c r="X51" s="231"/>
-      <c r="Y51" s="232"/>
-      <c r="Z51" s="230"/>
-      <c r="AA51" s="231"/>
-      <c r="AB51" s="232"/>
-      <c r="AC51" s="288"/>
-      <c r="AD51" s="230"/>
-      <c r="AE51" s="231"/>
-      <c r="AF51" s="231"/>
-      <c r="AG51" s="232"/>
+    <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="295"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="232"/>
+      <c r="G51" s="232"/>
+      <c r="H51" s="233"/>
+      <c r="I51" s="299"/>
+      <c r="J51" s="300"/>
+      <c r="K51" s="300"/>
+      <c r="L51" s="301"/>
+      <c r="M51" s="299"/>
+      <c r="N51" s="300"/>
+      <c r="O51" s="300"/>
+      <c r="P51" s="300"/>
+      <c r="Q51" s="300"/>
+      <c r="R51" s="300"/>
+      <c r="S51" s="300"/>
+      <c r="T51" s="301"/>
+      <c r="U51" s="231"/>
+      <c r="V51" s="232"/>
+      <c r="W51" s="232"/>
+      <c r="X51" s="232"/>
+      <c r="Y51" s="233"/>
+      <c r="Z51" s="231"/>
+      <c r="AA51" s="232"/>
+      <c r="AB51" s="233"/>
+      <c r="AC51" s="295"/>
+      <c r="AD51" s="231"/>
+      <c r="AE51" s="232"/>
+      <c r="AF51" s="232"/>
+      <c r="AG51" s="233"/>
       <c r="AH51" s="116"/>
       <c r="AI51" s="116"/>
       <c r="AJ51" s="116"/>
@@ -8241,53 +8736,53 @@
       <c r="AS51" s="116"/>
       <c r="AT51" s="116"/>
     </row>
-    <row r="52" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="121">
         <v>1</v>
       </c>
-      <c r="E52" s="172" t="s">
+      <c r="E52" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="236"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="297"/>
-      <c r="I52" s="298" t="s">
+      <c r="F52" s="237"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="305" t="s">
         <v>120</v>
       </c>
-      <c r="J52" s="299"/>
-      <c r="K52" s="299"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="303" t="s">
+      <c r="J52" s="306"/>
+      <c r="K52" s="306"/>
+      <c r="L52" s="306"/>
+      <c r="M52" s="310" t="s">
         <v>111</v>
       </c>
-      <c r="N52" s="304"/>
-      <c r="O52" s="304"/>
-      <c r="P52" s="304"/>
-      <c r="Q52" s="304"/>
-      <c r="R52" s="304"/>
-      <c r="S52" s="304"/>
-      <c r="T52" s="304"/>
-      <c r="U52" s="284" t="s">
+      <c r="N52" s="311"/>
+      <c r="O52" s="311"/>
+      <c r="P52" s="311"/>
+      <c r="Q52" s="311"/>
+      <c r="R52" s="311"/>
+      <c r="S52" s="311"/>
+      <c r="T52" s="311"/>
+      <c r="U52" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="V52" s="285"/>
-      <c r="W52" s="285"/>
-      <c r="X52" s="285"/>
-      <c r="Y52" s="285"/>
-      <c r="Z52" s="284" t="s">
+      <c r="V52" s="292"/>
+      <c r="W52" s="292"/>
+      <c r="X52" s="292"/>
+      <c r="Y52" s="292"/>
+      <c r="Z52" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="AA52" s="285"/>
-      <c r="AB52" s="285"/>
+      <c r="AA52" s="292"/>
+      <c r="AB52" s="292"/>
       <c r="AC52" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="AD52" s="169" t="s">
+      <c r="AD52" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="AE52" s="240"/>
-      <c r="AF52" s="240"/>
-      <c r="AG52" s="241"/>
+      <c r="AE52" s="252"/>
+      <c r="AF52" s="252"/>
+      <c r="AG52" s="253"/>
       <c r="AH52" s="116"/>
       <c r="AI52" s="116"/>
       <c r="AJ52" s="116"/>
@@ -8302,10 +8797,10 @@
       <c r="AS52" s="116"/>
       <c r="AT52" s="116"/>
     </row>
-    <row r="53" spans="3:53" ht="11.25" customHeight="1">
+    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AY53" s="107"/>
     </row>
-    <row r="54" spans="3:53">
+    <row r="54" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D54" s="112"/>
       <c r="E54" s="113"/>
       <c r="F54" s="117"/>
@@ -8347,7 +8842,7 @@
       <c r="AR54" s="104"/>
       <c r="AS54" s="104"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C55" s="17" t="s">
         <v>66</v>
       </c>
@@ -8392,7 +8887,7 @@
       <c r="AR55" s="104"/>
       <c r="AS55" s="104"/>
     </row>
-    <row r="56" spans="3:53" ht="11.25" customHeight="1">
+    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI56" s="117"/>
       <c r="AJ56" s="117"/>
       <c r="AK56" s="104"/>
@@ -8409,25 +8904,25 @@
       <c r="AV56" s="104"/>
       <c r="AW56" s="104"/>
     </row>
-    <row r="57" spans="3:53">
-      <c r="D57" s="253" t="s">
+    <row r="57" spans="3:53" x14ac:dyDescent="0.15">
+      <c r="D57" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="255" t="s">
+      <c r="E57" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="256"/>
-      <c r="G57" s="256"/>
-      <c r="H57" s="256"/>
-      <c r="I57" s="256"/>
-      <c r="J57" s="257"/>
-      <c r="K57" s="255" t="s">
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="261"/>
+      <c r="K57" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="256"/>
-      <c r="M57" s="256"/>
-      <c r="N57" s="257"/>
-      <c r="O57" s="264" t="s">
+      <c r="L57" s="260"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="261"/>
+      <c r="O57" s="277" t="s">
         <v>51</v>
       </c>
       <c r="P57" s="122" t="s">
@@ -8438,21 +8933,21 @@
       <c r="S57" s="123"/>
       <c r="T57" s="123"/>
       <c r="U57" s="123"/>
-      <c r="V57" s="255" t="s">
+      <c r="V57" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="W57" s="256"/>
-      <c r="X57" s="256"/>
-      <c r="Y57" s="256"/>
-      <c r="Z57" s="256"/>
-      <c r="AA57" s="256"/>
-      <c r="AB57" s="256"/>
-      <c r="AC57" s="256"/>
-      <c r="AD57" s="256"/>
-      <c r="AE57" s="256"/>
-      <c r="AF57" s="256"/>
-      <c r="AG57" s="256"/>
-      <c r="AH57" s="257"/>
+      <c r="W57" s="260"/>
+      <c r="X57" s="260"/>
+      <c r="Y57" s="260"/>
+      <c r="Z57" s="260"/>
+      <c r="AA57" s="260"/>
+      <c r="AB57" s="260"/>
+      <c r="AC57" s="260"/>
+      <c r="AD57" s="260"/>
+      <c r="AE57" s="260"/>
+      <c r="AF57" s="260"/>
+      <c r="AG57" s="260"/>
+      <c r="AH57" s="261"/>
       <c r="AK57" s="104"/>
       <c r="AL57" s="104"/>
       <c r="AM57" s="104"/>
@@ -8467,19 +8962,19 @@
       <c r="AV57" s="104"/>
       <c r="AW57" s="104"/>
     </row>
-    <row r="58" spans="3:53">
-      <c r="D58" s="254"/>
-      <c r="E58" s="258"/>
-      <c r="F58" s="259"/>
-      <c r="G58" s="259"/>
-      <c r="H58" s="259"/>
-      <c r="I58" s="259"/>
-      <c r="J58" s="260"/>
-      <c r="K58" s="258"/>
-      <c r="L58" s="259"/>
-      <c r="M58" s="259"/>
-      <c r="N58" s="260"/>
-      <c r="O58" s="265"/>
+    <row r="58" spans="3:53" x14ac:dyDescent="0.15">
+      <c r="D58" s="258"/>
+      <c r="E58" s="262"/>
+      <c r="F58" s="263"/>
+      <c r="G58" s="263"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="264"/>
+      <c r="K58" s="262"/>
+      <c r="L58" s="263"/>
+      <c r="M58" s="263"/>
+      <c r="N58" s="264"/>
+      <c r="O58" s="278"/>
       <c r="P58" s="124" t="s">
         <v>52</v>
       </c>
@@ -8492,23 +8987,23 @@
       <c r="S58" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="T58" s="262" t="s">
+      <c r="T58" s="266" t="s">
         <v>59</v>
       </c>
-      <c r="U58" s="263"/>
-      <c r="V58" s="258"/>
-      <c r="W58" s="259"/>
-      <c r="X58" s="259"/>
-      <c r="Y58" s="259"/>
-      <c r="Z58" s="259"/>
-      <c r="AA58" s="259"/>
-      <c r="AB58" s="259"/>
-      <c r="AC58" s="259"/>
-      <c r="AD58" s="259"/>
-      <c r="AE58" s="259"/>
-      <c r="AF58" s="259"/>
-      <c r="AG58" s="259"/>
-      <c r="AH58" s="260"/>
+      <c r="U58" s="267"/>
+      <c r="V58" s="262"/>
+      <c r="W58" s="263"/>
+      <c r="X58" s="263"/>
+      <c r="Y58" s="263"/>
+      <c r="Z58" s="263"/>
+      <c r="AA58" s="263"/>
+      <c r="AB58" s="263"/>
+      <c r="AC58" s="263"/>
+      <c r="AD58" s="263"/>
+      <c r="AE58" s="263"/>
+      <c r="AF58" s="263"/>
+      <c r="AG58" s="263"/>
+      <c r="AH58" s="264"/>
       <c r="AK58" s="104"/>
       <c r="AL58" s="104"/>
       <c r="AM58" s="104"/>
@@ -8523,24 +9018,24 @@
       <c r="AV58" s="104"/>
       <c r="AW58" s="104"/>
     </row>
-    <row r="59" spans="3:53">
+    <row r="59" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D59" s="125">
         <v>1</v>
       </c>
-      <c r="E59" s="266" t="s">
+      <c r="E59" s="279" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="267"/>
-      <c r="G59" s="267"/>
-      <c r="H59" s="267"/>
-      <c r="I59" s="267"/>
-      <c r="J59" s="268"/>
-      <c r="K59" s="169" t="s">
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="281"/>
+      <c r="K59" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="L59" s="240"/>
-      <c r="M59" s="240"/>
-      <c r="N59" s="241"/>
+      <c r="L59" s="252"/>
+      <c r="M59" s="252"/>
+      <c r="N59" s="253"/>
       <c r="O59" s="120"/>
       <c r="P59" s="143" t="s">
         <v>83</v>
@@ -8554,25 +9049,25 @@
       <c r="S59" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="T59" s="247" t="s">
+      <c r="T59" s="249" t="s">
         <v>83</v>
       </c>
-      <c r="U59" s="248"/>
-      <c r="V59" s="249" t="s">
+      <c r="U59" s="250"/>
+      <c r="V59" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="W59" s="240"/>
-      <c r="X59" s="240"/>
-      <c r="Y59" s="240"/>
-      <c r="Z59" s="240"/>
-      <c r="AA59" s="240"/>
-      <c r="AB59" s="240"/>
-      <c r="AC59" s="240"/>
-      <c r="AD59" s="240"/>
-      <c r="AE59" s="240"/>
-      <c r="AF59" s="240"/>
-      <c r="AG59" s="240"/>
-      <c r="AH59" s="241"/>
+      <c r="W59" s="252"/>
+      <c r="X59" s="252"/>
+      <c r="Y59" s="252"/>
+      <c r="Z59" s="252"/>
+      <c r="AA59" s="252"/>
+      <c r="AB59" s="252"/>
+      <c r="AC59" s="252"/>
+      <c r="AD59" s="252"/>
+      <c r="AE59" s="252"/>
+      <c r="AF59" s="252"/>
+      <c r="AG59" s="252"/>
+      <c r="AH59" s="253"/>
       <c r="AK59" s="104"/>
       <c r="AL59" s="104"/>
       <c r="AM59" s="104"/>
@@ -8587,7 +9082,7 @@
       <c r="AV59" s="104"/>
       <c r="AW59" s="104"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D60" s="115"/>
       <c r="E60" s="140"/>
       <c r="F60" s="140"/>
@@ -8635,7 +9130,7 @@
       <c r="AZ60" s="104"/>
       <c r="BA60" s="104"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D61" s="112"/>
       <c r="E61" s="113"/>
       <c r="F61" s="117"/>
@@ -8679,7 +9174,7 @@
       <c r="AZ61" s="104"/>
       <c r="BA61" s="104"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C62" s="17" t="s">
         <v>67</v>
       </c>
@@ -8693,374 +9188,374 @@
       <c r="AZ62" s="104"/>
       <c r="BA62" s="104"/>
     </row>
-    <row r="64" spans="3:53" ht="11.25" customHeight="1">
+    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="126"/>
       <c r="D64" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="269" t="s">
+      <c r="E64" s="282" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="245"/>
-      <c r="G64" s="245"/>
-      <c r="H64" s="245"/>
-      <c r="I64" s="245"/>
-      <c r="J64" s="270"/>
-      <c r="K64" s="269" t="s">
+      <c r="F64" s="247"/>
+      <c r="G64" s="247"/>
+      <c r="H64" s="247"/>
+      <c r="I64" s="247"/>
+      <c r="J64" s="283"/>
+      <c r="K64" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="L64" s="245"/>
-      <c r="M64" s="245"/>
-      <c r="N64" s="245"/>
-      <c r="O64" s="245"/>
-      <c r="P64" s="245"/>
-      <c r="Q64" s="246"/>
-      <c r="R64" s="233" t="s">
+      <c r="L64" s="247"/>
+      <c r="M64" s="247"/>
+      <c r="N64" s="247"/>
+      <c r="O64" s="247"/>
+      <c r="P64" s="247"/>
+      <c r="Q64" s="248"/>
+      <c r="R64" s="234" t="s">
         <v>71</v>
       </c>
-      <c r="S64" s="245"/>
-      <c r="T64" s="245"/>
-      <c r="U64" s="245"/>
-      <c r="V64" s="245"/>
-      <c r="W64" s="245"/>
-      <c r="X64" s="245"/>
-      <c r="Y64" s="246"/>
-      <c r="Z64" s="274" t="s">
+      <c r="S64" s="247"/>
+      <c r="T64" s="247"/>
+      <c r="U64" s="247"/>
+      <c r="V64" s="247"/>
+      <c r="W64" s="247"/>
+      <c r="X64" s="247"/>
+      <c r="Y64" s="248"/>
+      <c r="Z64" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="AA64" s="275"/>
-      <c r="AB64" s="275"/>
-      <c r="AC64" s="275"/>
-      <c r="AD64" s="276"/>
-      <c r="AE64" s="271" t="s">
+      <c r="AA64" s="272"/>
+      <c r="AB64" s="272"/>
+      <c r="AC64" s="272"/>
+      <c r="AD64" s="273"/>
+      <c r="AE64" s="268" t="s">
         <v>107</v>
       </c>
-      <c r="AF64" s="272"/>
-      <c r="AG64" s="272"/>
-      <c r="AH64" s="273"/>
-    </row>
-    <row r="65" spans="1:56" ht="27" customHeight="1">
+      <c r="AF64" s="269"/>
+      <c r="AG64" s="269"/>
+      <c r="AH64" s="270"/>
+    </row>
+    <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="128">
         <v>1</v>
       </c>
-      <c r="E65" s="261" t="s">
+      <c r="E65" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="251"/>
-      <c r="G65" s="251"/>
-      <c r="H65" s="251"/>
-      <c r="I65" s="251"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="249" t="s">
+      <c r="F65" s="255"/>
+      <c r="G65" s="255"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="255"/>
+      <c r="J65" s="256"/>
+      <c r="K65" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="L65" s="240"/>
-      <c r="M65" s="240"/>
-      <c r="N65" s="240"/>
-      <c r="O65" s="240"/>
-      <c r="P65" s="240"/>
-      <c r="Q65" s="241"/>
-      <c r="R65" s="169" t="s">
+      <c r="L65" s="252"/>
+      <c r="M65" s="252"/>
+      <c r="N65" s="252"/>
+      <c r="O65" s="252"/>
+      <c r="P65" s="252"/>
+      <c r="Q65" s="253"/>
+      <c r="R65" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="S65" s="240"/>
-      <c r="T65" s="240"/>
-      <c r="U65" s="240"/>
-      <c r="V65" s="240"/>
-      <c r="W65" s="240"/>
-      <c r="X65" s="240"/>
-      <c r="Y65" s="241"/>
-      <c r="Z65" s="249" t="s">
+      <c r="S65" s="252"/>
+      <c r="T65" s="252"/>
+      <c r="U65" s="252"/>
+      <c r="V65" s="252"/>
+      <c r="W65" s="252"/>
+      <c r="X65" s="252"/>
+      <c r="Y65" s="253"/>
+      <c r="Z65" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="AA65" s="240"/>
-      <c r="AB65" s="240"/>
-      <c r="AC65" s="240"/>
-      <c r="AD65" s="241"/>
-      <c r="AE65" s="242" t="s">
+      <c r="AA65" s="252"/>
+      <c r="AB65" s="252"/>
+      <c r="AC65" s="252"/>
+      <c r="AD65" s="253"/>
+      <c r="AE65" s="274" t="s">
         <v>69</v>
       </c>
-      <c r="AF65" s="243"/>
-      <c r="AG65" s="243"/>
-      <c r="AH65" s="244"/>
-    </row>
-    <row r="66" spans="1:56" ht="27" customHeight="1">
-      <c r="D66" s="128">
+      <c r="AF65" s="275"/>
+      <c r="AG65" s="275"/>
+      <c r="AH65" s="276"/>
+    </row>
+    <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="147">
         <v>2</v>
       </c>
-      <c r="E66" s="250" t="s">
+      <c r="E66" s="241" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="251"/>
-      <c r="G66" s="251"/>
-      <c r="H66" s="251"/>
-      <c r="I66" s="251"/>
-      <c r="J66" s="252"/>
-      <c r="K66" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="L66" s="240"/>
-      <c r="M66" s="240"/>
-      <c r="N66" s="240"/>
-      <c r="O66" s="240"/>
-      <c r="P66" s="240"/>
-      <c r="Q66" s="241"/>
-      <c r="R66" s="169" t="s">
-        <v>140</v>
-      </c>
-      <c r="S66" s="240"/>
-      <c r="T66" s="240"/>
-      <c r="U66" s="240"/>
-      <c r="V66" s="240"/>
-      <c r="W66" s="240"/>
-      <c r="X66" s="240"/>
-      <c r="Y66" s="241"/>
-      <c r="Z66" s="169" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA66" s="240"/>
-      <c r="AB66" s="240"/>
-      <c r="AC66" s="240"/>
-      <c r="AD66" s="241"/>
-      <c r="AE66" s="242" t="s">
+      <c r="F66" s="242"/>
+      <c r="G66" s="242"/>
+      <c r="H66" s="242"/>
+      <c r="I66" s="242"/>
+      <c r="J66" s="243"/>
+      <c r="K66" s="241" t="s">
+        <v>127</v>
+      </c>
+      <c r="L66" s="242"/>
+      <c r="M66" s="242"/>
+      <c r="N66" s="242"/>
+      <c r="O66" s="242"/>
+      <c r="P66" s="242"/>
+      <c r="Q66" s="243"/>
+      <c r="R66" s="241" t="s">
+        <v>138</v>
+      </c>
+      <c r="S66" s="242"/>
+      <c r="T66" s="242"/>
+      <c r="U66" s="242"/>
+      <c r="V66" s="242"/>
+      <c r="W66" s="242"/>
+      <c r="X66" s="242"/>
+      <c r="Y66" s="243"/>
+      <c r="Z66" s="241" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA66" s="242"/>
+      <c r="AB66" s="242"/>
+      <c r="AC66" s="242"/>
+      <c r="AD66" s="243"/>
+      <c r="AE66" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="AF66" s="243"/>
-      <c r="AG66" s="243"/>
-      <c r="AH66" s="244"/>
-    </row>
-    <row r="67" spans="1:56" ht="27" customHeight="1">
+      <c r="AF66" s="245"/>
+      <c r="AG66" s="245"/>
+      <c r="AH66" s="246"/>
+    </row>
+    <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="128">
         <v>3</v>
       </c>
-      <c r="E67" s="250" t="s">
+      <c r="E67" s="254" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="251"/>
-      <c r="G67" s="251"/>
-      <c r="H67" s="251"/>
-      <c r="I67" s="251"/>
-      <c r="J67" s="252"/>
-      <c r="K67" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="L67" s="240"/>
-      <c r="M67" s="240"/>
-      <c r="N67" s="240"/>
-      <c r="O67" s="240"/>
-      <c r="P67" s="240"/>
-      <c r="Q67" s="241"/>
-      <c r="R67" s="169" t="s">
-        <v>138</v>
-      </c>
-      <c r="S67" s="240"/>
-      <c r="T67" s="240"/>
-      <c r="U67" s="240"/>
-      <c r="V67" s="240"/>
-      <c r="W67" s="240"/>
-      <c r="X67" s="240"/>
-      <c r="Y67" s="241"/>
-      <c r="Z67" s="250" t="s">
+      <c r="F67" s="255"/>
+      <c r="G67" s="255"/>
+      <c r="H67" s="255"/>
+      <c r="I67" s="255"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="170" t="s">
+        <v>128</v>
+      </c>
+      <c r="L67" s="252"/>
+      <c r="M67" s="252"/>
+      <c r="N67" s="252"/>
+      <c r="O67" s="252"/>
+      <c r="P67" s="252"/>
+      <c r="Q67" s="253"/>
+      <c r="R67" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="AA67" s="251"/>
-      <c r="AB67" s="251"/>
-      <c r="AC67" s="251"/>
-      <c r="AD67" s="252"/>
-      <c r="AE67" s="242" t="s">
+      <c r="S67" s="252"/>
+      <c r="T67" s="252"/>
+      <c r="U67" s="252"/>
+      <c r="V67" s="252"/>
+      <c r="W67" s="252"/>
+      <c r="X67" s="252"/>
+      <c r="Y67" s="253"/>
+      <c r="Z67" s="254" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA67" s="255"/>
+      <c r="AB67" s="255"/>
+      <c r="AC67" s="255"/>
+      <c r="AD67" s="256"/>
+      <c r="AE67" s="274" t="s">
         <v>69</v>
       </c>
-      <c r="AF67" s="243"/>
-      <c r="AG67" s="243"/>
-      <c r="AH67" s="244"/>
-    </row>
-    <row r="68" spans="1:56" ht="27" customHeight="1">
-      <c r="D68" s="128">
+      <c r="AF67" s="275"/>
+      <c r="AG67" s="275"/>
+      <c r="AH67" s="276"/>
+    </row>
+    <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="147">
         <v>4</v>
       </c>
-      <c r="E68" s="250" t="s">
-        <v>127</v>
-      </c>
-      <c r="F68" s="251"/>
-      <c r="G68" s="251"/>
-      <c r="H68" s="251"/>
-      <c r="I68" s="251"/>
-      <c r="J68" s="252"/>
-      <c r="K68" s="169" t="s">
-        <v>134</v>
-      </c>
-      <c r="L68" s="240"/>
-      <c r="M68" s="240"/>
-      <c r="N68" s="240"/>
-      <c r="O68" s="240"/>
-      <c r="P68" s="240"/>
-      <c r="Q68" s="241"/>
-      <c r="R68" s="169" t="s">
-        <v>144</v>
-      </c>
-      <c r="S68" s="240"/>
-      <c r="T68" s="240"/>
-      <c r="U68" s="240"/>
-      <c r="V68" s="240"/>
-      <c r="W68" s="240"/>
-      <c r="X68" s="240"/>
-      <c r="Y68" s="241"/>
-      <c r="Z68" s="169" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA68" s="240"/>
-      <c r="AB68" s="240"/>
-      <c r="AC68" s="240"/>
-      <c r="AD68" s="241"/>
-      <c r="AE68" s="242" t="s">
+      <c r="E68" s="241" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="243"/>
+      <c r="K68" s="241" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68" s="242"/>
+      <c r="M68" s="242"/>
+      <c r="N68" s="242"/>
+      <c r="O68" s="242"/>
+      <c r="P68" s="242"/>
+      <c r="Q68" s="243"/>
+      <c r="R68" s="241" t="s">
+        <v>142</v>
+      </c>
+      <c r="S68" s="242"/>
+      <c r="T68" s="242"/>
+      <c r="U68" s="242"/>
+      <c r="V68" s="242"/>
+      <c r="W68" s="242"/>
+      <c r="X68" s="242"/>
+      <c r="Y68" s="243"/>
+      <c r="Z68" s="241" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA68" s="242"/>
+      <c r="AB68" s="242"/>
+      <c r="AC68" s="242"/>
+      <c r="AD68" s="243"/>
+      <c r="AE68" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="AF68" s="243"/>
-      <c r="AG68" s="243"/>
-      <c r="AH68" s="244"/>
+      <c r="AF68" s="245"/>
+      <c r="AG68" s="245"/>
+      <c r="AH68" s="246"/>
       <c r="AN68" s="104"/>
       <c r="AO68" s="104"/>
       <c r="AP68" s="104"/>
     </row>
-    <row r="69" spans="1:56" ht="27" customHeight="1">
-      <c r="D69" s="128">
+    <row r="69" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="147">
         <v>5</v>
       </c>
-      <c r="E69" s="250" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="251"/>
-      <c r="G69" s="251"/>
-      <c r="H69" s="251"/>
-      <c r="I69" s="251"/>
-      <c r="J69" s="252"/>
-      <c r="K69" s="169" t="s">
-        <v>133</v>
-      </c>
-      <c r="L69" s="240"/>
-      <c r="M69" s="240"/>
-      <c r="N69" s="240"/>
-      <c r="O69" s="240"/>
-      <c r="P69" s="240"/>
-      <c r="Q69" s="241"/>
-      <c r="R69" s="169" t="s">
-        <v>143</v>
-      </c>
-      <c r="S69" s="240"/>
-      <c r="T69" s="240"/>
-      <c r="U69" s="240"/>
-      <c r="V69" s="240"/>
-      <c r="W69" s="240"/>
-      <c r="X69" s="240"/>
-      <c r="Y69" s="241"/>
-      <c r="Z69" s="169" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA69" s="240"/>
-      <c r="AB69" s="240"/>
-      <c r="AC69" s="240"/>
-      <c r="AD69" s="241"/>
-      <c r="AE69" s="242" t="s">
+      <c r="E69" s="241" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="242"/>
+      <c r="G69" s="242"/>
+      <c r="H69" s="242"/>
+      <c r="I69" s="242"/>
+      <c r="J69" s="243"/>
+      <c r="K69" s="241" t="s">
+        <v>131</v>
+      </c>
+      <c r="L69" s="242"/>
+      <c r="M69" s="242"/>
+      <c r="N69" s="242"/>
+      <c r="O69" s="242"/>
+      <c r="P69" s="242"/>
+      <c r="Q69" s="243"/>
+      <c r="R69" s="241" t="s">
+        <v>141</v>
+      </c>
+      <c r="S69" s="242"/>
+      <c r="T69" s="242"/>
+      <c r="U69" s="242"/>
+      <c r="V69" s="242"/>
+      <c r="W69" s="242"/>
+      <c r="X69" s="242"/>
+      <c r="Y69" s="243"/>
+      <c r="Z69" s="241" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA69" s="242"/>
+      <c r="AB69" s="242"/>
+      <c r="AC69" s="242"/>
+      <c r="AD69" s="243"/>
+      <c r="AE69" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="AF69" s="243"/>
-      <c r="AG69" s="243"/>
-      <c r="AH69" s="244"/>
+      <c r="AF69" s="245"/>
+      <c r="AG69" s="245"/>
+      <c r="AH69" s="246"/>
       <c r="AN69" s="104"/>
       <c r="AO69" s="104"/>
       <c r="AP69" s="104"/>
     </row>
-    <row r="70" spans="1:56" ht="27" customHeight="1">
-      <c r="D70" s="128">
+    <row r="70" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="147">
         <v>6</v>
       </c>
-      <c r="E70" s="250" t="s">
+      <c r="E70" s="241" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="242"/>
+      <c r="G70" s="242"/>
+      <c r="H70" s="242"/>
+      <c r="I70" s="242"/>
+      <c r="J70" s="243"/>
+      <c r="K70" s="241" t="s">
+        <v>166</v>
+      </c>
+      <c r="L70" s="242"/>
+      <c r="M70" s="242"/>
+      <c r="N70" s="242"/>
+      <c r="O70" s="242"/>
+      <c r="P70" s="242"/>
+      <c r="Q70" s="243"/>
+      <c r="R70" s="241" t="s">
+        <v>139</v>
+      </c>
+      <c r="S70" s="242"/>
+      <c r="T70" s="242"/>
+      <c r="U70" s="242"/>
+      <c r="V70" s="242"/>
+      <c r="W70" s="242"/>
+      <c r="X70" s="242"/>
+      <c r="Y70" s="243"/>
+      <c r="Z70" s="241" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA70" s="242"/>
+      <c r="AB70" s="242"/>
+      <c r="AC70" s="242"/>
+      <c r="AD70" s="243"/>
+      <c r="AE70" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF70" s="245"/>
+      <c r="AG70" s="245"/>
+      <c r="AH70" s="246"/>
+    </row>
+    <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D71" s="147">
+        <v>7</v>
+      </c>
+      <c r="E71" s="241" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="251"/>
-      <c r="G70" s="251"/>
-      <c r="H70" s="251"/>
-      <c r="I70" s="251"/>
-      <c r="J70" s="252"/>
-      <c r="K70" s="169" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="240"/>
-      <c r="M70" s="240"/>
-      <c r="N70" s="240"/>
-      <c r="O70" s="240"/>
-      <c r="P70" s="240"/>
-      <c r="Q70" s="241"/>
-      <c r="R70" s="169" t="s">
-        <v>141</v>
-      </c>
-      <c r="S70" s="240"/>
-      <c r="T70" s="240"/>
-      <c r="U70" s="240"/>
-      <c r="V70" s="240"/>
-      <c r="W70" s="240"/>
-      <c r="X70" s="240"/>
-      <c r="Y70" s="241"/>
-      <c r="Z70" s="250" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA70" s="251"/>
-      <c r="AB70" s="251"/>
-      <c r="AC70" s="251"/>
-      <c r="AD70" s="252"/>
-      <c r="AE70" s="242" t="s">
+      <c r="F71" s="242"/>
+      <c r="G71" s="242"/>
+      <c r="H71" s="242"/>
+      <c r="I71" s="242"/>
+      <c r="J71" s="243"/>
+      <c r="K71" s="241" t="s">
+        <v>129</v>
+      </c>
+      <c r="L71" s="242"/>
+      <c r="M71" s="242"/>
+      <c r="N71" s="242"/>
+      <c r="O71" s="242"/>
+      <c r="P71" s="242"/>
+      <c r="Q71" s="243"/>
+      <c r="R71" s="241" t="s">
+        <v>140</v>
+      </c>
+      <c r="S71" s="242"/>
+      <c r="T71" s="242"/>
+      <c r="U71" s="242"/>
+      <c r="V71" s="242"/>
+      <c r="W71" s="242"/>
+      <c r="X71" s="242"/>
+      <c r="Y71" s="243"/>
+      <c r="Z71" s="241" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA71" s="242"/>
+      <c r="AB71" s="242"/>
+      <c r="AC71" s="242"/>
+      <c r="AD71" s="243"/>
+      <c r="AE71" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="AF70" s="243"/>
-      <c r="AG70" s="243"/>
-      <c r="AH70" s="244"/>
-    </row>
-    <row r="71" spans="1:56" ht="27" customHeight="1">
-      <c r="D71" s="128">
-        <v>7</v>
-      </c>
-      <c r="E71" s="250" t="s">
-        <v>126</v>
-      </c>
-      <c r="F71" s="251"/>
-      <c r="G71" s="251"/>
-      <c r="H71" s="251"/>
-      <c r="I71" s="251"/>
-      <c r="J71" s="252"/>
-      <c r="K71" s="169" t="s">
-        <v>131</v>
-      </c>
-      <c r="L71" s="240"/>
-      <c r="M71" s="240"/>
-      <c r="N71" s="240"/>
-      <c r="O71" s="240"/>
-      <c r="P71" s="240"/>
-      <c r="Q71" s="241"/>
-      <c r="R71" s="169" t="s">
-        <v>142</v>
-      </c>
-      <c r="S71" s="240"/>
-      <c r="T71" s="240"/>
-      <c r="U71" s="240"/>
-      <c r="V71" s="240"/>
-      <c r="W71" s="240"/>
-      <c r="X71" s="240"/>
-      <c r="Y71" s="241"/>
-      <c r="Z71" s="169" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA71" s="240"/>
-      <c r="AB71" s="240"/>
-      <c r="AC71" s="240"/>
-      <c r="AD71" s="241"/>
-      <c r="AE71" s="242" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF71" s="243"/>
-      <c r="AG71" s="243"/>
-      <c r="AH71" s="244"/>
-    </row>
-    <row r="72" spans="1:56" s="107" customFormat="1">
+      <c r="AF71" s="245"/>
+      <c r="AG71" s="245"/>
+      <c r="AH71" s="246"/>
+    </row>
+    <row r="72" spans="1:56" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D72" s="111"/>
       <c r="E72" s="131"/>
       <c r="F72" s="131"/>
@@ -9096,7 +9591,7 @@
       <c r="AO72" s="29"/>
       <c r="AP72" s="29"/>
     </row>
-    <row r="73" spans="1:56">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A73" s="104"/>
       <c r="B73" s="104"/>
       <c r="C73" s="104"/>
@@ -9148,7 +9643,7 @@
       <c r="BA73" s="104"/>
       <c r="BB73" s="104"/>
     </row>
-    <row r="74" spans="1:56">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C74" s="104" t="s">
         <v>65</v>
       </c>
@@ -9174,10 +9669,10 @@
       <c r="BC74" s="104"/>
       <c r="BD74" s="104"/>
     </row>
-    <row r="75" spans="1:56" ht="11.25" customHeight="1">
+    <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="104"/>
       <c r="D75" s="133" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E75" s="105"/>
       <c r="AP75" s="104"/>
@@ -9196,7 +9691,7 @@
       <c r="BC75" s="104"/>
       <c r="BD75" s="104"/>
     </row>
-    <row r="76" spans="1:56" ht="11.25" customHeight="1">
+    <row r="76" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="104"/>
       <c r="D76" s="105"/>
       <c r="E76" s="105"/>
@@ -9216,7 +9711,7 @@
       <c r="BC76" s="104"/>
       <c r="BD76" s="104"/>
     </row>
-    <row r="77" spans="1:56" s="107" customFormat="1" ht="11.25" customHeight="1">
+    <row r="77" spans="1:56" s="107" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="29"/>
       <c r="D77" s="105"/>
       <c r="E77" s="105" t="s">
@@ -9224,13 +9719,13 @@
       </c>
       <c r="AP77" s="29"/>
     </row>
-    <row r="78" spans="1:56">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C78" s="104"/>
       <c r="D78" s="105"/>
       <c r="E78" s="105"/>
       <c r="F78" s="105"/>
     </row>
-    <row r="79" spans="1:56" ht="11.25" customHeight="1">
+    <row r="79" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="104"/>
       <c r="D79" s="105"/>
       <c r="E79" s="105"/>
@@ -9239,7 +9734,7 @@
       </c>
       <c r="AP79" s="104"/>
     </row>
-    <row r="80" spans="1:56" s="107" customFormat="1">
+    <row r="80" spans="1:56" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="29"/>
       <c r="B80" s="106"/>
       <c r="C80" s="29"/>
@@ -9276,15 +9771,15 @@
       <c r="AI80" s="130"/>
       <c r="AJ80" s="113"/>
     </row>
-    <row r="81" spans="3:58" ht="11.25" customHeight="1">
+    <row r="81" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="104"/>
       <c r="D81" s="105"/>
       <c r="E81" s="105"/>
       <c r="AP81" s="104"/>
     </row>
-    <row r="82" spans="3:58">
+    <row r="82" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E82" s="103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G82" s="106"/>
       <c r="AJ82" s="108"/>
@@ -9311,7 +9806,7 @@
       <c r="BE82" s="108"/>
       <c r="BF82" s="108"/>
     </row>
-    <row r="83" spans="3:58">
+    <row r="83" spans="3:58" x14ac:dyDescent="0.15">
       <c r="H83" s="106"/>
       <c r="AJ83" s="108"/>
       <c r="AK83" s="108"/>
@@ -9337,10 +9832,10 @@
       <c r="BE83" s="108"/>
       <c r="BF83" s="108"/>
     </row>
-    <row r="84" spans="3:58">
+    <row r="84" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E84" s="109"/>
       <c r="F84" s="71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AJ84" s="108"/>
       <c r="AK84" s="108"/>
@@ -9366,11 +9861,11 @@
       <c r="BE84" s="108"/>
       <c r="BF84" s="108"/>
     </row>
-    <row r="85" spans="3:58">
+    <row r="85" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E85" s="109"/>
       <c r="F85" s="110"/>
       <c r="G85" s="71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AJ85" s="108"/>
       <c r="AK85" s="108"/>
@@ -9396,11 +9891,11 @@
       <c r="BE85" s="108"/>
       <c r="BF85" s="108"/>
     </row>
-    <row r="86" spans="3:58">
+    <row r="86" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E86" s="109"/>
       <c r="F86" s="110"/>
       <c r="G86" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AJ86" s="108"/>
       <c r="AK86" s="108"/>
@@ -9426,11 +9921,11 @@
       <c r="BE86" s="108"/>
       <c r="BF86" s="108"/>
     </row>
-    <row r="87" spans="3:58">
+    <row r="87" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E87" s="109"/>
       <c r="F87" s="110"/>
       <c r="G87" s="71" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AJ87" s="108"/>
       <c r="AK87" s="108"/>
@@ -9456,11 +9951,11 @@
       <c r="BE87" s="108"/>
       <c r="BF87" s="108"/>
     </row>
-    <row r="88" spans="3:58">
+    <row r="88" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E88" s="109"/>
       <c r="F88" s="110"/>
       <c r="G88" s="71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ88" s="108"/>
       <c r="AK88" s="108"/>
@@ -9486,11 +9981,11 @@
       <c r="BE88" s="108"/>
       <c r="BF88" s="108"/>
     </row>
-    <row r="89" spans="3:58">
+    <row r="89" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E89" s="109"/>
       <c r="F89" s="110"/>
       <c r="G89" s="71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AJ89" s="108"/>
       <c r="AK89" s="108"/>
@@ -9516,7 +10011,7 @@
       <c r="BE89" s="108"/>
       <c r="BF89" s="108"/>
     </row>
-    <row r="90" spans="3:58">
+    <row r="90" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E90" s="109"/>
       <c r="F90" s="110"/>
       <c r="G90" s="71"/>
@@ -9544,7 +10039,7 @@
       <c r="BE90" s="108"/>
       <c r="BF90" s="108"/>
     </row>
-    <row r="91" spans="3:58">
+    <row r="91" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E91" s="109"/>
       <c r="AJ91" s="108"/>
       <c r="AK91" s="108"/>
@@ -9570,22 +10065,22 @@
       <c r="BE91" s="108"/>
       <c r="BF91" s="108"/>
     </row>
-    <row r="92" spans="3:58">
+    <row r="92" spans="3:58" x14ac:dyDescent="0.15">
       <c r="D92" s="103" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="3:58">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E94" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="3:58">
+    <row r="96" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F96" s="103" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:58" s="107" customFormat="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="29"/>
       <c r="B97" s="106"/>
       <c r="C97" s="29"/>
@@ -9622,7 +10117,7 @@
       <c r="AI97" s="130"/>
       <c r="AJ97" s="113"/>
     </row>
-    <row r="98" spans="1:58">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E98" s="109"/>
       <c r="AJ98" s="108"/>
       <c r="AK98" s="108"/>
@@ -9648,22 +10143,22 @@
       <c r="BE98" s="108"/>
       <c r="BF98" s="108"/>
     </row>
-    <row r="99" spans="1:58">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D99" s="103" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:58">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E101" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:58">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F103" s="103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:58" s="107" customFormat="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="29"/>
       <c r="B104" s="106"/>
       <c r="C104" s="29"/>
@@ -9700,7 +10195,7 @@
       <c r="AI104" s="130"/>
       <c r="AJ104" s="113"/>
     </row>
-    <row r="105" spans="1:58">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E105" s="109"/>
       <c r="AJ105" s="108"/>
       <c r="AK105" s="108"/>
@@ -9726,22 +10221,22 @@
       <c r="BE105" s="108"/>
       <c r="BF105" s="108"/>
     </row>
-    <row r="106" spans="1:58">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D106" s="103" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:58">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E108" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:58">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F110" s="103" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58" s="107" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="29"/>
       <c r="B111" s="106"/>
       <c r="C111" s="29"/>
@@ -9778,7 +10273,7 @@
       <c r="AI111" s="130"/>
       <c r="AJ111" s="113"/>
     </row>
-    <row r="112" spans="1:58">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E112" s="109"/>
       <c r="AJ112" s="108"/>
       <c r="AK112" s="108"/>
@@ -9804,22 +10299,22 @@
       <c r="BE112" s="108"/>
       <c r="BF112" s="108"/>
     </row>
-    <row r="113" spans="1:58">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D113" s="103" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:58">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E115" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:58">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F117" s="103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:58" s="107" customFormat="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="29"/>
       <c r="B118" s="106"/>
       <c r="C118" s="29"/>
@@ -9856,22 +10351,22 @@
       <c r="AI118" s="130"/>
       <c r="AJ118" s="113"/>
     </row>
-    <row r="119" spans="1:58">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D119" s="103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:58">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E121" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:58">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F123" s="103" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:58" s="107" customFormat="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="29"/>
       <c r="B124" s="106"/>
       <c r="C124" s="29"/>
@@ -9908,7 +10403,7 @@
       <c r="AI124" s="130"/>
       <c r="AJ124" s="113"/>
     </row>
-    <row r="125" spans="1:58">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E125" s="109"/>
       <c r="AJ125" s="108"/>
       <c r="AK125" s="108"/>
@@ -9934,22 +10429,22 @@
       <c r="BE125" s="108"/>
       <c r="BF125" s="108"/>
     </row>
-    <row r="126" spans="1:58">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D126" s="103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="128" spans="1:58">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E128" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:58">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F130" s="103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="131" spans="1:58" s="107" customFormat="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="29"/>
       <c r="B131" s="106"/>
       <c r="C131" s="29"/>
@@ -9986,7 +10481,7 @@
       <c r="AI131" s="130"/>
       <c r="AJ131" s="113"/>
     </row>
-    <row r="132" spans="1:58">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E132" s="109"/>
       <c r="AJ132" s="108"/>
       <c r="AK132" s="108"/>
@@ -10012,7 +10507,7 @@
       <c r="BE132" s="108"/>
       <c r="BF132" s="108"/>
     </row>
-    <row r="133" spans="1:58" s="107" customFormat="1">
+    <row r="133" spans="1:58" s="107" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="29"/>
       <c r="B133" s="106"/>
       <c r="C133" s="29"/>
@@ -10143,7 +10638,7 @@
     <mergeCell ref="Z69:AD69"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:P44">
       <formula1>"-,有,無"</formula1>
     </dataValidation>
@@ -10162,7 +10657,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -10175,7 +10670,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>データ!$D$2:$D$4</xm:f>
@@ -10197,7 +10692,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>
@@ -10206,7 +10701,7 @@
     <col min="5" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
@@ -10220,7 +10715,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
         <v>108</v>
       </c>
@@ -10234,7 +10729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="79" t="s">
         <v>16</v>
       </c>
@@ -10248,7 +10743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="79" t="s">
         <v>17</v>
       </c>
@@ -10262,7 +10757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="79" t="s">
         <v>18</v>
       </c>
@@ -10273,7 +10768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
         <v>19</v>
       </c>
@@ -10281,7 +10776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
         <v>20</v>
       </c>
@@ -10289,27 +10784,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="79" t="s">
         <v>25</v>
       </c>
